--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -3985,7 +3985,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>4:15 AM OFFICE LAVE TIME</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -575,20 +615,52 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 11</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jerry D </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -610,8 +682,16 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -641,8 +721,16 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -659,48 +747,24 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:15 OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM MEET BAYSHORE </t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -710,10 +774,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -721,7 +789,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -729,7 +797,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -737,7 +805,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -745,7 +813,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">5:30 AM MEET BAYSHORE </t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -760,7 +828,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -768,7 +836,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -776,7 +844,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>SENDIK'S, GERMANTOWN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -784,7 +852,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #092, HARTLAND</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -792,7 +860,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -807,7 +875,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -815,7 +883,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #091, SLINGER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -823,7 +891,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>N112 W15800 MEQUON RD</t>
+          <t>SENDIK'S, GERMANTOWN</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -831,7 +899,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>505 SOUTH COTTONWOOD</t>
+          <t>PIGGLY WIGGLY #092, HARTLAND</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -839,7 +907,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #086, PORT WASHINGTON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -854,7 +922,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -862,7 +930,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1100 E COMMERCE BLVD</t>
+          <t>PIGGLY WIGGLY #091, SLINGER</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -870,7 +938,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NUJqE8qFKjS2</t>
+          <t>N112 W15800 MEQUON RD</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -878,7 +946,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3fKEhu9Q6Q52</t>
+          <t>505 SOUTH COTTONWOOD</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -886,7 +954,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>101 W SEVEN HILLS RD</t>
+          <t>PIGGLY WIGGLY #086, PORT WASHINGTON</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -901,7 +969,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -909,23 +977,31 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WgMCr1tJCE12</t>
+          <t>1100 E COMMERCE BLVD</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/NUJqE8qFKjS2</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/3fKEhu9Q6Q52</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QTeeYs5i3hE2</t>
+          <t>101 W SEVEN HILLS RD</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -940,49 +1016,33 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WgMCr1tJCE12</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/QTeeYs5i3hE2</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -995,75 +1055,50 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>work w/ Sydney</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>@ Store, Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1075,47 +1110,52 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>work w/ Sydney</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1126,17 +1166,17 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Sante Fe, Equip</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1150,43 +1190,47 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1197,15 +1241,19 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1217,48 +1265,43 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1269,20 +1312,15 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1292,46 +1330,50 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Gold Camry</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1342,15 +1384,20 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1359,58 +1406,47 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1st Sendik's, work w/ Michael</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1421,12 +1457,12 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1440,56 +1476,56 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>work w/ Terri</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1st Sendik's, work w/ Michael</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1500,12 +1536,12 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1517,42 +1553,58 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Nataun</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>work w/ Terri</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1563,12 +1615,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1586,36 +1638,36 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1624,8 +1676,16 @@
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Robyn</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1636,40 +1696,48 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1685,53 +1753,41 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1st Sendik's, work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1744,55 +1800,51 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Lashaun</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Leyna</t>
+          <t>1st Sendik's, work w/ Carlie</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1807,35 +1859,47 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store, work w/ Lashaun</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1843,7 +1907,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1858,7 +1922,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1867,14 +1931,26 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1882,7 +1958,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>FESTIVAL #2711, SOMERS - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1897,17 +1973,13 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1917,7 +1989,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>FESTIVAL #2716, APPLETON-DARBOY - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1925,7 +1997,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>6000 31ST ST</t>
+          <t>FESTIVAL #2711, SOMERS - LIFO</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1940,7 +2012,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>APPROX 9:00/10:00 AM START</t>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1948,23 +2020,19 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>W3195 VAN ROY RD</t>
+          <t>FESTIVAL #2716, APPLETON-DARBOY - LIFO</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1972,7 +2040,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
+          <t>6000 31ST ST</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -1987,7 +2055,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 9:00/10:00 AM START</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1995,7 +2063,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>METRO #887 +RX, GREENFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2003,7 +2071,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2011,13 +2079,17 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
+          <t>W3195 VAN ROY RD</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2030,7 +2102,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>RON'S MARKET, HELENVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2038,7 +2110,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>4279 S 76TH STREET</t>
+          <t>METRO #887 +RX, GREENFIELD</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2046,30 +2118,22 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2081,7 +2145,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W3094 HWY 18</t>
+          <t>RON'S MARKET, HELENVILLE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2089,7 +2153,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
+          <t>4279 S 76TH STREET</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2097,38 +2161,30 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2424 S 90TH ST</t>
+          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2140,7 +2196,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+          <t>W3094 HWY 18</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2148,7 +2204,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LIQUOR RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2156,35 +2212,35 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
+          <t>2424 S 90TH ST</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2197,54 +2253,56 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>LIQUOR RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>PARK IN EAST PARKING STRUCTURE, RX IS IN PHYSICIANS TOWER</t>
+          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2253,68 +2311,53 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Driver, Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>PARK IN EAST PARKING STRUCTURE, RX IS IN PHYSICIANS TOWER</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Optima</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2327,67 +2370,68 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Driver, Altima, Equip</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2396,46 +2440,66 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2453,12 +2517,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2469,24 +2533,24 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2499,53 +2563,45 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2560,19 +2616,19 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2580,42 +2636,34 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2627,19 +2675,19 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2647,19 +2695,19 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2670,12 +2718,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2694,19 +2742,19 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FESTIVAL #2731, PORTAGE - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2714,19 +2762,19 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2737,12 +2785,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2761,43 +2809,39 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2915 NEW PINERY RD</t>
+          <t>FESTIVAL #2731, PORTAGE - LIFO</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1500 ARBOR WAY, SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2808,12 +2852,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2832,19 +2876,19 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Q9z3QD9T6xQ2</t>
+          <t>2915 NEW PINERY RD</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2856,19 +2900,19 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
+          <t>1500 ARBOR WAY, SUITE 100</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2879,12 +2923,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2901,17 +2945,21 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Q9z3QD9T6xQ2</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2921,17 +2969,21 @@
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2942,12 +2994,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -2963,30 +3015,18 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2995,30 +3035,18 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3029,12 +3057,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3052,29 +3080,28 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3083,18 +3110,30 @@
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3105,12 +3144,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3128,30 +3167,34 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3161,23 +3204,35 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>17)</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3188,43 +3243,52 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3239,24 +3303,24 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3268,7 +3332,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3290,28 +3354,24 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3323,17 +3383,13 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3349,12 +3405,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3365,25 +3421,24 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>*FIRST INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3391,7 +3446,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3409,12 +3464,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3423,14 +3478,27 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
+          <t>*FIRST INVENTORY</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3438,7 +3506,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3456,12 +3524,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3477,7 +3545,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>800 EAST MAES AVE</t>
+          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3485,7 +3553,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3503,12 +3571,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3518,17 +3586,13 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
+          <t>800 EAST MAES AVE</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3536,7 +3600,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3554,12 +3618,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3571,19 +3635,23 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3601,12 +3669,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3618,29 +3686,21 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3656,12 +3716,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3673,39 +3733,30 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>@ Store,
-Gold Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3720,12 +3771,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3737,41 +3788,37 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Gold Camry, Equip</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -3788,12 +3835,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3803,24 +3850,45 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3833,34 +3901,34 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3884,32 +3952,36 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3924,11 +3996,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3937,12 +4005,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3954,14 +4022,10 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Rkfd cars</t>
-        </is>
-      </c>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3977,27 +4041,23 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4009,10 +4069,14 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Rkfd cars</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4028,7 +4092,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -4036,19 +4100,19 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4058,7 +4122,11 @@
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -4075,7 +4143,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #242, OMRO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4083,19 +4151,19 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4122,7 +4190,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>142 ALDER AVE</t>
+          <t>PIGGLY WIGGLY #242, OMRO</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -4130,19 +4198,19 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4169,7 +4237,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Kxve1fWVWb62</t>
+          <t>142 ALDER AVE</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4177,19 +4245,19 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1910 ALABAMA ST</t>
+          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4214,25 +4282,29 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Kxve1fWVWb62</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
+          <t>1910 ALABAMA ST</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4256,34 +4328,26 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4309,40 +4373,32 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4368,33 +4424,40 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -4420,17 +4483,18 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -4440,12 +4504,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4471,12 +4535,12 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4489,9 +4553,21 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4510,12 +4586,12 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4549,12 +4625,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4568,11 +4644,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4592,12 +4664,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4613,7 +4685,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4633,16 +4705,32 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
@@ -4688,11 +4776,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -4721,7 +4805,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -4744,6 +4828,37 @@
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -1844,7 +1844,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:00 AM MEET RYAN RD PARK N RIDE (100 &amp; 94)</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -1676,16 +1676,8 @@
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Robyn</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1718,7 +1710,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1765,10 +1757,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1777,17 +1773,25 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1st Sendik's, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET RYAN RD PARK N RIDE (100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1812,12 +1816,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Lashaun</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1828,12 +1832,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1st Sendik's, work w/ Carlie</t>
+          <t>@ Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1844,7 +1848,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>6:00 AM MEET RYAN RD PARK N RIDE (100 &amp; 94)</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1864,21 +1868,9 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store, work w/ Lashaun</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1887,12 +1879,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1907,7 +1899,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1931,21 +1923,9 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -1958,7 +1938,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2711, SOMERS - LIFO</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1979,7 +1959,11 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1997,7 +1981,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>FESTIVAL #2711, SOMERS - LIFO</t>
+          <t>6000 31ST ST</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2020,13 +2004,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2040,7 +2028,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6000 31ST ST</t>
+          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2063,7 +2051,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #887 +RX, GREENFIELD</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2071,7 +2059,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2085,11 +2073,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2110,7 +2094,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>METRO #887 +RX, GREENFIELD</t>
+          <t>4279 S 76TH STREET</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2118,7 +2102,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2131,9 +2115,21 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2153,7 +2149,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4279 S 76TH STREET</t>
+          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2161,7 +2157,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
+          <t>2424 S 90TH ST</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2172,19 +2168,15 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2204,7 +2196,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
+          <t>LIQUOR RESET-REMAPPED</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2212,7 +2204,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2424 S 90TH ST</t>
+          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2235,12 +2227,12 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2261,17 +2253,13 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>LIQUOR RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
+          <t>PARK IN EAST PARKING STRUCTURE, RX IS IN PHYSICIANS TOWER</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2294,15 +2282,20 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2315,16 +2308,24 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>PARK IN EAST PARKING STRUCTURE, RX IS IN PHYSICIANS TOWER</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2346,18 +2347,18 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Gold Camry</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2386,23 +2387,31 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2418,20 +2427,15 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2454,31 +2458,19 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2494,12 +2486,12 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2517,12 +2509,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2545,12 +2537,12 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2568,18 +2560,22 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2596,12 +2592,12 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2623,12 +2619,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2636,7 +2632,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2655,15 +2651,19 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2682,12 +2682,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2718,12 +2718,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2749,12 +2749,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2762,7 +2762,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2785,12 +2785,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2816,20 +2816,24 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
+          <t>1500 ARBOR WAY, SUITE 100</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2852,12 +2856,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2883,12 +2887,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2900,7 +2904,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1500 ARBOR WAY, SUITE 100</t>
+          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2923,12 +2927,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2954,12 +2958,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2969,11 +2973,7 @@
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
@@ -2994,12 +2994,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3021,12 +3021,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3035,9 +3035,21 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3057,12 +3069,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3096,12 +3108,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3110,21 +3122,9 @@
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3144,12 +3144,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3184,17 +3184,18 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3218,21 +3219,9 @@
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3255,23 +3244,26 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
@@ -3315,12 +3307,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3332,7 +3324,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3366,12 +3358,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3383,7 +3375,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3421,24 +3413,25 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*FIRST INVENTORY</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3478,27 +3471,14 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>*FIRST INVENTORY</t>
+          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3545,7 +3525,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
+          <t>800 EAST MAES AVE</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3586,13 +3566,17 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>800 EAST MAES AVE</t>
+          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3635,17 +3619,13 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3686,14 +3666,26 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
@@ -3733,26 +3725,22 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3788,22 +3776,27 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3850,29 +3843,20 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -3917,18 +3901,30 @@
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3952,33 +3948,25 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4005,12 +3993,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4047,17 +4035,21 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4100,19 +4092,19 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4151,19 +4143,19 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4198,19 +4190,19 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4245,19 +4237,19 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
+          <t>1910 ALABAMA ST</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4292,19 +4284,19 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1910 ALABAMA ST</t>
+          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4333,21 +4325,17 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4387,18 +4375,30 @@
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4434,30 +4434,18 @@
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -4504,12 +4492,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4553,21 +4541,9 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4644,7 +4620,11 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4685,7 +4665,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4726,11 +4706,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bags 5,6</t>
+          <t>Bags 5-7</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -689,7 +689,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Bag 9</t>
+          <t>Bag 9, SB 10</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -2341,7 +2341,8 @@
       <c r="S36" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+machines</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -713,11 +713,19 @@
           <t> </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Red Van maintenance this day</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>If Red Van not done in time, Kim will drive for Slinger</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -3179,7 +3187,7 @@
       <c r="G49" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Gold Camry</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -1300,7 +1300,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>*get DC's after store</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2171,7 +2175,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>*Jerry - machine bags into the Optima trunk after getting back</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
@@ -2217,21 +2225,9 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2274,17 +2270,17 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2338,19 +2334,17 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-machines</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2424,15 +2418,21 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+machines</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -2483,12 +2483,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2534,12 +2534,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2589,12 +2589,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2648,12 +2648,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2711,19 +2711,15 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2778,12 +2774,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2849,12 +2845,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2920,12 +2916,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2987,12 +2983,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3062,12 +3058,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3137,12 +3133,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3214,12 +3210,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3277,12 +3273,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3338,9 +3334,21 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3446,11 +3454,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3495,7 +3499,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3542,7 +3546,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3593,7 +3597,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3640,7 +3644,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3699,7 +3703,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3752,7 +3756,11 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3807,22 +3815,9 @@
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store,
-Gold Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3869,17 +3864,18 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Gold Camry, Equip</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3938,9 +3934,21 @@
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -4017,11 +4025,7 @@
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -4070,14 +4074,10 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Rkfd cars</t>
-        </is>
-      </c>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4125,10 +4125,14 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Rkfd cars</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4174,7 +4178,11 @@
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -721,11 +721,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>If Red Van not done in time, Kim will drive for Slinger</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -1603,7 +1603,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>*leaving early</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>

--- a/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Milwaukee Schedule.xlsx
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>*leaving early</t>
+          <t>*Until 10:00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
